--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602963F0-8F4E-1C4B-A055-A5B262B5B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922AFCD-C749-4947-BA41-952FCF5BA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -46,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -448,10 +437,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>- Interest</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit/Sales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -580,9 +565,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Valuation Drivers</t>
-  </si>
-  <si>
     <t>External Drivers</t>
   </si>
   <si>
@@ -777,10 +759,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Upper</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Lower</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -889,9 +867,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Pessimistic Case</t>
-  </si>
-  <si>
     <t>3. Upward earnings trend?</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +948,14 @@
   </si>
   <si>
     <t>Choice of Discount Rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Case Valuation</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -981,18 +964,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1268,7 +1251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1515,13 +1498,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1574,8 +1568,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,14 +1592,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1635,7 +1629,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1737,7 +1731,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1765,7 +1759,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,13 +1812,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1860,7 +1854,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,16 +1884,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1920,7 +1914,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1942,10 +1936,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,10 +1948,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,7 +1968,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1986,13 +1980,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,7 +2024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,19 +2068,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2111,7 +2105,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,10 +2117,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2153,10 +2147,13 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,7 +2162,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2179,7 +2176,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2192,14 +2189,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2395,7 +2392,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2457,7 +2454,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2729,7 +2726,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2759,7 +2756,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3567,48 +3564,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3616,39 +3613,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="194">
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3664,23 +3661,23 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3689,63 +3686,63 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="243" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="225" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="243" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="244" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="243" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="225" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="243" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
-      <c r="B22" s="227" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="244" t="s">
-        <v>236</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3792,7 +3789,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3808,7 +3805,7 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3824,7 +3821,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3840,7 +3837,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3856,9 +3853,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -3872,7 +3869,7 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3888,7 +3885,7 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -3904,7 +3901,7 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -3920,7 +3917,7 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -3936,7 +3933,7 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -3952,7 +3949,7 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -3968,9 +3965,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -3984,7 +3981,7 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4000,7 +3997,7 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4016,7 +4013,7 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4032,7 +4029,7 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4048,9 +4045,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4064,9 +4061,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4080,9 +4077,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4096,9 +4093,9 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" s="251"/>
       <c r="D44" s="251"/>
@@ -4112,70 +4109,70 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C45" s="153" t="str">
-        <f>IF(C44="","",C44/Dashboard!$G$3)</f>
+        <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="D45" s="153" t="str">
-        <f>IF(D44="","",D44/Dashboard!$G$3)</f>
+        <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="E45" s="153" t="str">
-        <f>IF(E44="","",E44/Dashboard!$G$3)</f>
+        <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f>IF(F44="","",F44/Dashboard!$G$3)</f>
+        <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f>IF(G44="","",G44/Dashboard!$G$3)</f>
+        <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f>IF(H44="","",H44/Dashboard!$G$3)</f>
+        <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f>IF(I44="","",I44/Dashboard!$G$3)</f>
+        <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f>IF(J44="","",J44/Dashboard!$G$3)</f>
+        <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f>IF(K44="","",K44/Dashboard!$G$3)</f>
+        <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f>IF(L44="","",L44/Dashboard!$G$3)</f>
+        <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f>IF(M44="","",M44/Dashboard!$G$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4185,9 +4182,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4195,7 +4192,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4206,7 +4203,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4216,7 +4213,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4226,9 +4223,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4237,7 +4234,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4247,7 +4244,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4258,7 +4255,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4294,7 +4291,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4305,7 +4302,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4316,7 +4313,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4327,7 +4324,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4338,9 +4335,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4349,7 +4346,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4407,7 +4404,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4418,7 +4415,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4428,7 +4425,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4439,7 +4436,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
         <v>76</v>
       </c>
@@ -4449,126 +4446,126 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="267">
+        <v>128</v>
+      </c>
+      <c r="C89" s="268">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="267"/>
+      <c r="D89" s="268"/>
       <c r="E89" s="89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="268" t="s">
+      <c r="C90" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="268"/>
+      <c r="D90" s="269"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4576,9 +4573,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4594,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4615,9 +4612,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4636,9 +4633,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4654,12 +4651,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C95" s="77">
-        <f>C33-C32</f>
+        <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
       <c r="D95" s="160" t="e">
@@ -4675,12 +4672,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C96" s="77">
-        <f>C31</f>
+        <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
       <c r="D96" s="160" t="e">
@@ -4693,12 +4690,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C97" s="77">
-        <f>MAX(C30,0)</f>
+        <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
       <c r="D97" s="160" t="e">
@@ -4711,18 +4708,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="167" t="e">
-        <f>C98/C96</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
         <v>0</v>
@@ -4802,23 +4796,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4827,7 +4821,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4842,15 +4836,15 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="273" t="str">
+        <v>196</v>
+      </c>
+      <c r="C3" s="274" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="274"/>
+      <c r="D3" s="275"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4862,48 +4856,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="275" t="str">
+        <v>197</v>
+      </c>
+      <c r="C4" s="276" t="str">
         <f>Inputs!C5</f>
         <v>Template</v>
       </c>
-      <c r="D4" s="276"/>
+      <c r="D4" s="277"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="279">
+      <c r="G4" s="280">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="279"/>
+      <c r="H4" s="280"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="277">
+        <v>164</v>
+      </c>
+      <c r="C5" s="278">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="278"/>
+      <c r="D5" s="279"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="271">
+      <c r="G5" s="272">
         <f>G3*G4/1000000</f>
         <v>8677.4538662252908</v>
       </c>
-      <c r="H5" s="271"/>
+      <c r="H5" s="272"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4922,16 +4916,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="272" t="str">
+      <c r="G6" s="273" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="272"/>
+      <c r="H6" s="273"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4953,43 +4947,43 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -4999,32 +4993,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5034,22 +5028,22 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5057,29 +5051,29 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C20" s="172" t="e">
         <f>Fin_Analysis!I75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C21" s="172" t="e">
         <f>Fin_Analysis!I77</f>
@@ -5088,113 +5082,113 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="172" t="e">
         <f>Fin_Analysis!I78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="172" t="e">
         <f>Fin_Analysis!I80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="172" t="e">
         <f>Fin_Analysis!I81</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="179" t="e">
         <f>(Fin_Analysis!H86*G7)/G3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C25" s="172" t="e">
         <f>Fin_Analysis!I82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" s="172" t="e">
         <f>Fin_Analysis!I88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" s="172" t="e">
         <f>Fin_Analysis!I83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="269" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="269"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="G28" s="270" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="270"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="129" t="e">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
+        <f>G29*(1+G20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
@@ -5202,41 +5196,41 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="270" t="e">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+      <c r="G29" s="271" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="270"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="271"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5244,962 +5238,962 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6271,13 +6265,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6285,7 +6279,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6293,7 +6287,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6301,16 +6295,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="148" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>208</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6318,7 +6312,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6328,7 +6322,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6347,7 +6341,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6361,7 +6355,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6369,10 +6363,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6419,7 +6413,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6470,7 +6464,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6521,7 +6515,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6572,7 +6566,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6623,7 +6617,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6674,7 +6668,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6725,10 +6719,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6776,10 +6770,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C13" s="230" t="e">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6827,10 +6821,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C14" s="231" t="e">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6878,10 +6872,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6929,7 +6923,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6980,10 +6974,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7031,7 +7025,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7082,7 +7076,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7133,10 +7127,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C20" s="153" t="e">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7184,7 +7178,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7235,7 +7229,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7286,7 +7280,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7337,7 +7331,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7388,10 +7382,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="234" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7439,10 +7433,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7490,7 +7484,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7541,7 +7535,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7592,7 +7586,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7643,10 +7637,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7694,7 +7688,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7745,7 +7739,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7796,7 +7790,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7847,7 +7841,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7898,7 +7892,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7949,10 +7943,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8000,10 +7994,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8051,10 +8045,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8102,10 +8096,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8153,10 +8147,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8204,10 +8198,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8222,7 +8216,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8273,10 +8267,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C43" s="154" t="e">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8324,7 +8318,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8375,7 +8369,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8426,10 +8420,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="154" t="e">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8477,10 +8471,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C47" s="154" t="e">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8528,10 +8522,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="154" t="e">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8579,10 +8573,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8597,10 +8591,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="157" t="e">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8648,10 +8642,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="154" t="e">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8699,10 +8693,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8716,7 +8710,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8766,7 +8760,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -8816,7 +8810,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -8866,7 +8860,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8916,1260 +8910,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10210,10 +10204,10 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10221,11 +10215,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10241,7 +10235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10265,7 +10259,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10281,7 +10275,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10296,7 +10290,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10321,7 +10315,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10344,13 +10338,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10370,7 +10364,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10378,7 +10372,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -10395,7 +10389,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10423,9 +10417,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10451,7 +10445,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10479,7 +10473,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10507,7 +10501,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10534,9 +10528,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10556,7 +10550,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10578,7 +10572,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10599,7 +10593,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10624,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10651,7 +10645,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10672,7 +10666,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10698,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10707,7 +10701,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10729,7 +10723,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10758,7 +10752,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10791,7 +10785,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -10824,7 +10818,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10854,7 +10848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10866,7 +10860,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -10892,7 +10886,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -10919,7 +10913,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -10946,9 +10940,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10976,7 +10970,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -11003,7 +10997,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11029,7 +11023,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11056,7 +11050,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11083,7 +11077,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11104,7 +11098,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11125,7 +11119,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11146,7 +11140,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11167,7 +11161,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11193,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11202,7 +11196,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11221,7 +11215,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11240,7 +11234,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11270,7 +11264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11327,7 +11321,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11354,20 +11348,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11384,7 +11378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11405,7 +11399,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11414,9 +11408,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11425,53 +11419,53 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="280">
+      <c r="D56" s="281">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="278"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="279">
+      <c r="D57" s="280">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="278"/>
+      <c r="E57" s="279"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="279">
+      <c r="D58" s="280">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="278"/>
+      <c r="E58" s="279"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11480,9 +11474,9 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11494,7 +11488,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11515,9 +11509,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11536,9 +11530,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11557,9 +11551,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11572,9 +11566,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11593,7 +11587,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11603,9 +11597,9 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11617,9 +11611,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11638,9 +11632,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11653,9 +11647,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11674,50 +11668,50 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="267">
+        <v>128</v>
+      </c>
+      <c r="C72" s="268">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="267"/>
-      <c r="E72" s="281" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="281"/>
-      <c r="H72" s="281" t="s">
-        <v>209</v>
-      </c>
-      <c r="I72" s="281"/>
+      <c r="D72" s="268"/>
+      <c r="E72" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="282"/>
+      <c r="H72" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="282"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="268" t="s">
+      <c r="C73" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="268"/>
-      <c r="E73" s="282" t="s">
+      <c r="D73" s="269"/>
+      <c r="E73" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="268"/>
-      <c r="H73" s="282" t="s">
+      <c r="F73" s="269"/>
+      <c r="H73" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="268"/>
+      <c r="I73" s="269"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="77" t="str">
         <f>Data!C6</f>
@@ -11736,7 +11730,7 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -11766,7 +11760,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11787,9 +11781,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C77" s="77" t="e">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11817,9 +11811,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11847,9 +11841,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C79" s="258" t="e">
         <f>C76-C77-C78</f>
@@ -11878,7 +11872,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -11907,12 +11901,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11940,12 +11934,12 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C82" s="77">
-        <f>MAX(MAX(Data!C21,0)-MAX(Data!C19,0),0)</f>
+        <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
       <c r="D82" s="160" t="e">
@@ -11970,9 +11964,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="164" t="e">
         <f>C79-C81-C82-C80</f>
@@ -12000,7 +11994,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -12021,9 +12015,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="258" t="e">
         <f>C83*(1-I84)</f>
@@ -12052,9 +12046,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" s="168" t="e">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12073,9 +12067,9 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C87" s="262" t="e">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12094,9 +12088,9 @@
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12124,9 +12118,9 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12145,43 +12139,44 @@
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="s">
-        <v>157</v>
+      <c r="B91" s="106" t="str">
+        <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
+        <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E92" s="281" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="281"/>
+        <v>157</v>
+      </c>
+      <c r="E92" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="282"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="281" t="s">
-        <v>209</v>
-      </c>
-      <c r="I92" s="281"/>
+      <c r="H92" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="I92" s="282"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12195,24 +12190,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="F93" s="144" t="e">
+        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="I93" s="144" t="e">
+        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F93" s="144" t="e">
-        <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="I93" s="144" t="e">
-        <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K93" s="24"/>
-    </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12220,26 +12215,26 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))</f>
+        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))</f>
+        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12250,27 +12245,27 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="91" t="e">
         <f>H97*Common_Shares/Data!C4</f>
@@ -12278,23 +12273,23 @@
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123" t="e">
-        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
+        <f>PV(C94,D93,0,-F93)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123" t="e">
-        <f>PV(C94,D93,0,-I93)*Exchange_Rate</f>
+        <f>PV(C94,D93,0,-I93)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I97" s="123" t="e">
-        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
+        <f>PV(C93,D93,0,-I93)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12310,9 +12305,9 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12320,7 +12315,7 @@
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
-        <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
+        <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
       <c r="F99" s="215"/>
@@ -12331,7 +12326,7 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
@@ -12361,40 +12356,40 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12405,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="123">
-        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
+        <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
       <c r="F103" s="109">
@@ -12413,49 +12408,49 @@
         <v>0</v>
       </c>
       <c r="H103" s="123">
-        <f>PV(C94,D93,0,-I94)*Exchange_Rate</f>
+        <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
       <c r="I103" s="109">
-        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
+        <f>PV(C93,D93,0,-I94)</f>
         <v>0</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12483,12 +12478,12 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904F137-26ED-4236-AFEB-2C7DBEC5521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA57154-CF3E-4D4B-9C98-9AAEADA73395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -951,6 +948,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1509,7 +1510,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2144,6 +2145,10 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2186,7 +2191,6 @@
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -3560,7 +3564,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3573,23 +3577,23 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3597,7 +3601,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="190">
-        <v>45593</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3610,24 +3614,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="284"/>
+      <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>587107850</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3659,7 +3663,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3667,10 +3671,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,55 +3688,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3851,7 +3855,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -4091,7 +4095,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251"/>
       <c r="D44" s="251"/>
@@ -4107,7 +4111,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="153" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4156,13 +4160,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4504,7 +4508,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4522,7 +4526,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4530,26 +4534,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4558,10 +4562,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4610,7 +4614,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4631,7 +4635,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4649,7 +4653,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4706,7 +4710,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4793,7 +4797,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4834,13 +4838,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="274" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4854,42 +4858,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="276" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>Template</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
-        <v>45593</v>
-      </c>
-      <c r="D5" s="279"/>
+        <v>45624</v>
+      </c>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
         <v>8677.4538662252908</v>
       </c>
-      <c r="H5" s="272"/>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4912,16 +4916,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4946,40 +4950,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -4992,29 +4996,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5024,12 +5028,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5039,7 +5043,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5047,7 +5051,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5061,7 +5065,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5069,7 +5073,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="172" t="e">
         <f>Fin_Analysis!I77</f>
@@ -5080,14 +5084,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172" t="e">
         <f>Fin_Analysis!I78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5099,7 +5103,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5115,16 +5119,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179" t="e">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
+        <v>264</v>
+      </c>
+      <c r="G24" s="269" t="e">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="172" t="e">
         <f>Fin_Analysis!I82</f>
@@ -5147,7 +5151,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5168,12 +5172,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5192,31 +5196,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="271" t="e">
+      <c r="G29" s="273" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="271"/>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5226,7 +5230,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5237,14 +5241,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5254,7 +5258,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5264,14 +5268,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5281,7 +5285,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5296,14 +5300,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6288,16 +6292,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6315,7 +6319,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6348,7 +6352,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6715,7 +6719,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6766,7 +6770,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230" t="e">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6817,7 +6821,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231" t="e">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6868,7 +6872,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6970,7 +6974,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7123,7 +7127,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153" t="e">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8194,7 +8198,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8263,7 +8267,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154" t="e">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8467,7 +8471,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154" t="e">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10365,7 +10369,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11417,11 +11421,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11432,11 +11436,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11448,11 +11452,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11666,19 +11670,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11688,18 +11692,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11776,7 +11780,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C77" s="77" t="e">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11836,7 +11840,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258" t="e">
         <f>C76-C77-C78</f>
@@ -11899,7 +11903,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11929,7 +11933,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12062,7 +12066,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262" t="e">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12083,7 +12087,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12113,7 +12117,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12158,15 +12162,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="282"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="282"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12183,14 +12187,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144" t="e">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144" t="e">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
@@ -12200,7 +12204,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12208,14 +12212,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12238,14 +12242,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12362,14 +12366,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12416,21 +12420,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12443,7 +12447,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>

--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA57154-CF3E-4D4B-9C98-9AAEADA73395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808157D8-1F7A-B948-B771-6D46B0280545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,10 +22,21 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -959,18 +970,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1507,7 +1518,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1563,8 +1574,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1587,14 +1598,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1624,7 +1635,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1726,7 +1737,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1754,7 +1765,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,13 +1818,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1849,7 +1860,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,16 +1890,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1909,7 +1920,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,10 +1942,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,10 +1954,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,7 +1974,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1975,13 +1986,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2019,7 +2030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,19 +2074,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2100,7 +2111,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,10 +2123,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2146,13 +2157,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2161,7 +2172,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2175,7 +2186,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2188,14 +2199,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2391,7 +2402,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2453,7 +2464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2725,7 +2736,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2755,7 +2766,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3564,23 +3575,23 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
@@ -3588,7 +3599,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
@@ -3596,7 +3607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3615,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
@@ -3621,7 +3632,7 @@
       </c>
       <c r="E8" s="268"/>
     </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
@@ -3629,7 +3640,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
@@ -3637,7 +3648,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3653,7 +3664,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="219" t="s">
         <v>220</v>
       </c>
@@ -3669,7 +3680,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="219" t="s">
         <v>260</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="241" t="s">
         <v>225</v>
       </c>
@@ -3695,7 +3706,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="241" t="s">
         <v>239</v>
       </c>
@@ -3704,7 +3715,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="241" t="s">
         <v>240</v>
       </c>
@@ -3713,7 +3724,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="242" t="s">
         <v>229</v>
       </c>
@@ -3722,7 +3733,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="225" t="s">
         <v>232</v>
       </c>
@@ -3731,7 +3742,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="227" t="s">
         <v>231</v>
       </c>
@@ -3740,7 +3751,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="115" t="s">
         <v>134</v>
       </c>
@@ -3789,7 +3800,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3805,7 +3816,7 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3821,7 +3832,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3837,7 +3848,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3853,7 +3864,7 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
         <v>261</v>
       </c>
@@ -3869,7 +3880,7 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3885,7 +3896,7 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -3901,7 +3912,7 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -3917,7 +3928,7 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -3933,7 +3944,7 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -3949,7 +3960,7 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -3965,7 +3976,7 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -3981,7 +3992,7 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -3997,7 +4008,7 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4013,7 +4024,7 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +4040,7 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4045,7 +4056,7 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
@@ -4061,7 +4072,7 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
@@ -4077,7 +4088,7 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
@@ -4093,7 +4104,7 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
@@ -4109,7 +4120,7 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="74" t="s">
         <v>256</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
@@ -4172,7 +4183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4182,7 +4193,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
@@ -4192,7 +4203,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4203,7 +4214,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4213,7 +4224,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4223,7 +4234,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4234,7 +4245,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4244,7 +4255,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4255,7 +4266,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4280,7 +4291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4291,7 +4302,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4302,7 +4313,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4313,7 +4324,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4324,7 +4335,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4335,7 +4346,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>160</v>
       </c>
@@ -4346,7 +4357,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4356,7 +4367,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4368,7 +4379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4380,7 +4391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4404,7 +4415,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4415,7 +4426,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4425,7 +4436,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4436,7 +4447,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="247" t="s">
         <v>76</v>
       </c>
@@ -4446,85 +4457,85 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B83" s="73" t="s">
         <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="10" t="s">
         <v>253</v>
       </c>
@@ -4532,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="10" t="s">
         <v>251</v>
       </c>
@@ -4540,7 +4551,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
@@ -4557,7 +4568,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -4573,7 +4584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>127</v>
       </c>
@@ -4591,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4612,7 +4623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B93" s="104" t="s">
         <v>250</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B94" s="104" t="s">
         <v>261</v>
       </c>
@@ -4651,7 +4662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B95" s="28" t="s">
         <v>249</v>
       </c>
@@ -4672,7 +4683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
@@ -4690,7 +4701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B97" s="73" t="s">
         <v>173</v>
       </c>
@@ -4708,7 +4719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
@@ -4760,7 +4771,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4800,19 +4811,19 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4821,7 +4832,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4836,7 +4847,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
@@ -4856,7 +4867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
@@ -4876,7 +4887,7 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
@@ -4897,7 +4908,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4923,7 +4934,7 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
@@ -4947,8 +4958,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>191</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
@@ -4967,7 +4978,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
@@ -4981,7 +4992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>257</v>
       </c>
@@ -4993,8 +5004,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -5005,7 +5016,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
@@ -5016,7 +5027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
@@ -5031,7 +5042,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
@@ -5040,8 +5051,8 @@
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>184</v>
       </c>
@@ -5056,7 +5067,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
@@ -5071,7 +5082,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>247</v>
       </c>
@@ -5082,7 +5093,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
@@ -5094,7 +5105,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
@@ -5110,7 +5121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
@@ -5126,7 +5137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>246</v>
       </c>
@@ -5142,7 +5153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
@@ -5158,8 +5169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5179,7 +5190,7 @@
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>169</v>
       </c>
@@ -5202,22 +5213,22 @@
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
@@ -5227,7 +5238,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>226</v>
@@ -5238,14 +5249,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
         <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
@@ -5255,7 +5266,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>240</v>
@@ -5265,14 +5276,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
@@ -5282,7 +5293,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>232</v>
@@ -5292,19 +5303,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
         <v>231</v>
@@ -5314,886 +5325,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6268,7 +6279,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6276,7 +6287,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6284,7 +6295,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6309,7 +6320,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6338,7 +6349,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6360,7 +6371,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>134</v>
@@ -6410,7 +6421,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6461,7 +6472,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6512,7 +6523,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6563,7 +6574,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6614,7 +6625,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6665,7 +6676,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6716,7 +6727,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>241</v>
@@ -6767,7 +6778,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
         <v>242</v>
@@ -6818,7 +6829,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
         <v>234</v>
@@ -6869,7 +6880,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
         <v>243</v>
@@ -6920,7 +6931,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6971,7 +6982,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>261</v>
@@ -7022,7 +7033,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7073,7 +7084,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7124,7 +7135,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>236</v>
@@ -7175,7 +7186,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7226,7 +7237,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7277,7 +7288,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7328,7 +7339,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7379,7 +7390,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
         <v>129</v>
@@ -7430,7 +7441,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>135</v>
@@ -7481,7 +7492,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7532,7 +7543,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7583,7 +7594,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7634,7 +7645,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>149</v>
@@ -7685,7 +7696,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7736,7 +7747,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7787,7 +7798,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7838,7 +7849,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7889,7 +7900,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7940,7 +7951,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>138</v>
@@ -7991,7 +8002,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>139</v>
@@ -8042,7 +8053,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>137</v>
@@ -8093,7 +8104,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -8144,7 +8155,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>158</v>
@@ -8195,7 +8206,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>255</v>
@@ -8213,7 +8224,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8264,7 +8275,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>235</v>
@@ -8315,7 +8326,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8366,7 +8377,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8417,7 +8428,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>130</v>
@@ -8468,7 +8479,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>237</v>
@@ -8519,7 +8530,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>124</v>
@@ -8570,7 +8581,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>150</v>
@@ -8588,7 +8599,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>147</v>
@@ -8639,7 +8650,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>148</v>
@@ -8690,7 +8701,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -8707,7 +8718,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8757,7 +8768,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -8807,7 +8818,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -8857,7 +8868,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8907,1260 +8918,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10204,7 +10215,7 @@
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10212,11 +10223,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10232,7 +10243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10256,7 +10267,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10272,7 +10283,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10287,7 +10298,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10312,7 +10323,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10335,13 +10346,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10361,7 +10372,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10386,7 +10397,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10414,7 +10425,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -10442,7 +10453,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10470,7 +10481,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10498,7 +10509,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10525,7 +10536,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>159</v>
       </c>
@@ -10547,7 +10558,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10569,7 +10580,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10590,7 +10601,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10615,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10642,7 +10653,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10663,7 +10674,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10689,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10698,7 +10709,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10720,7 +10731,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10749,7 +10760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10782,7 +10793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -10815,7 +10826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10845,7 +10856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10857,7 +10868,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -10883,7 +10894,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -10910,7 +10921,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -10937,7 +10948,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>160</v>
       </c>
@@ -10967,7 +10978,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -10994,7 +11005,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11020,7 +11031,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11047,7 +11058,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11074,7 +11085,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11095,7 +11106,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11116,7 +11127,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11137,7 +11148,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11158,7 +11169,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11184,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11193,7 +11204,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11212,7 +11223,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11231,7 +11242,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11261,7 +11272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11291,7 +11302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11318,7 +11329,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11345,20 +11356,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11375,7 +11386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11396,7 +11407,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11405,7 +11416,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>151</v>
       </c>
@@ -11416,7 +11427,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11431,7 +11442,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11447,7 +11458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11462,7 +11473,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11471,7 +11482,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>154</v>
       </c>
@@ -11485,7 +11496,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11506,7 +11517,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>140</v>
       </c>
@@ -11527,7 +11538,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
@@ -11548,7 +11559,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
@@ -11563,7 +11574,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>143</v>
       </c>
@@ -11584,7 +11595,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11594,7 +11605,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>155</v>
       </c>
@@ -11608,7 +11619,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>141</v>
       </c>
@@ -11629,7 +11640,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
@@ -11644,7 +11655,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
@@ -11665,7 +11676,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>128</v>
@@ -11687,7 +11698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -11706,7 +11717,7 @@
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>127</v>
       </c>
@@ -11727,7 +11738,7 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -11757,7 +11768,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11778,7 +11789,7 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="104" t="s">
         <v>250</v>
       </c>
@@ -11808,7 +11819,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="73" t="s">
         <v>173</v>
       </c>
@@ -11838,7 +11849,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="257" t="s">
         <v>233</v>
       </c>
@@ -11869,7 +11880,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -11901,7 +11912,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="104" t="s">
         <v>261</v>
       </c>
@@ -11931,7 +11942,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="28" t="s">
         <v>249</v>
       </c>
@@ -11961,7 +11972,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
@@ -11991,7 +12002,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -12012,7 +12023,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="264" t="s">
         <v>165</v>
       </c>
@@ -12043,7 +12054,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
@@ -12064,7 +12075,7 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
@@ -12085,7 +12096,7 @@
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
@@ -12115,7 +12126,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
@@ -12136,11 +12147,11 @@
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12151,7 +12162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
@@ -12173,7 +12184,7 @@
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12202,7 +12213,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
@@ -12227,11 +12238,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12260,7 +12271,7 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -12284,7 +12295,7 @@
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>145</v>
       </c>
@@ -12302,7 +12313,7 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="105" t="s">
         <v>146</v>
       </c>
@@ -12323,7 +12334,7 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
@@ -12353,11 +12364,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>163</v>
       </c>
@@ -12384,7 +12395,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>162</v>
       </c>
@@ -12414,11 +12425,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>198</v>
       </c>
@@ -12445,7 +12456,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
@@ -12475,10 +12486,10 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>166</v>
       </c>

--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808157D8-1F7A-B948-B771-6D46B0280545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B21775-907F-4D4A-97D9-9B677069BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -970,18 +970,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1518,7 +1518,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1574,8 +1574,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,14 +1598,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1635,7 +1635,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1737,7 +1737,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1765,7 +1765,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,13 +1818,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1860,7 +1860,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,16 +1890,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1920,7 +1920,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1942,10 +1942,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,10 +1954,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,7 +1974,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1986,13 +1986,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,7 +2030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,19 +2074,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2111,7 +2111,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,10 +2123,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2157,13 +2157,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2172,7 +2172,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2186,7 +2186,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2199,14 +2199,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2402,7 +2402,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2464,7 +2464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2736,7 +2736,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2766,7 +2766,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3574,24 +3574,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E8" s="268"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>220</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
         <v>260</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
         <v>225</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
         <v>239</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
         <v>240</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
         <v>229</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
         <v>232</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
         <v>231</v>
       </c>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
         <v>134</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>261</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>256</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>160</v>
       </c>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
         <v>76</v>
       </c>
@@ -4457,85 +4457,85 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>253</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>251</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
@@ -4563,12 +4563,12 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -4584,7 +4584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>127</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
         <v>250</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
         <v>261</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>249</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>173</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
@@ -4811,19 +4811,19 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4832,7 +4832,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4847,7 +4847,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
@@ -4958,8 +4958,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
         <v>191</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>257</v>
       </c>
@@ -5004,8 +5004,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
@@ -5051,8 +5051,8 @@
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
         <v>184</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
         <v>247</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>246</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
@@ -5169,8 +5169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>169</v>
       </c>
@@ -5213,22 +5213,22 @@
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
@@ -5238,7 +5238,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>226</v>
@@ -5249,14 +5249,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
         <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
@@ -5266,7 +5266,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>240</v>
@@ -5276,14 +5276,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
@@ -5293,7 +5293,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>232</v>
@@ -5303,19 +5303,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
         <v>231</v>
@@ -5325,886 +5325,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6279,7 +6279,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6287,7 +6287,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6295,7 +6295,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6320,7 +6320,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6349,7 +6349,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>134</v>
@@ -6421,7 +6421,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>241</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
         <v>242</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
         <v>234</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
         <v>243</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>261</v>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>236</v>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
         <v>129</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>135</v>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>149</v>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>138</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>139</v>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>137</v>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>158</v>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>255</v>
@@ -8224,7 +8224,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>235</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>130</v>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>237</v>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>124</v>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>150</v>
@@ -8599,7 +8599,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>147</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>148</v>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -8718,7 +8718,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8768,7 +8768,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -8818,7 +8818,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -8868,7 +8868,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8918,1260 +8918,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10215,7 +10215,7 @@
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10223,11 +10223,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10243,7 +10243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10323,7 +10323,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10346,13 +10346,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10372,7 +10372,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10509,7 +10509,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>159</v>
       </c>
@@ -10558,7 +10558,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10868,7 +10868,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -10894,7 +10894,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>160</v>
       </c>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11058,7 +11058,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11085,7 +11085,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11106,7 +11106,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11127,7 +11127,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11148,7 +11148,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11169,7 +11169,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11204,7 +11204,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11356,20 +11356,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11407,7 +11407,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11416,7 +11416,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>151</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11442,7 +11442,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11482,7 +11482,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>154</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11517,7 +11517,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>140</v>
       </c>
@@ -11538,7 +11538,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
@@ -11574,7 +11574,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>143</v>
       </c>
@@ -11595,7 +11595,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11605,7 +11605,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>155</v>
       </c>
@@ -11619,7 +11619,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>141</v>
       </c>
@@ -11640,7 +11640,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
@@ -11655,7 +11655,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
@@ -11676,7 +11676,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>128</v>
@@ -11698,7 +11698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -11717,7 +11717,7 @@
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>127</v>
       </c>
@@ -11738,7 +11738,7 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11789,7 +11789,7 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
         <v>250</v>
       </c>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>173</v>
       </c>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
         <v>233</v>
       </c>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
         <v>261</v>
       </c>
@@ -11942,7 +11942,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>249</v>
       </c>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
         <v>165</v>
       </c>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
@@ -12075,7 +12075,7 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
@@ -12096,7 +12096,7 @@
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
@@ -12147,11 +12147,11 @@
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12162,7 +12162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
@@ -12184,7 +12184,7 @@
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
@@ -12238,11 +12238,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>145</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
         <v>146</v>
       </c>
@@ -12334,7 +12334,7 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
@@ -12364,11 +12364,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>163</v>
       </c>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>162</v>
       </c>
@@ -12425,11 +12425,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>198</v>
       </c>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
@@ -12486,10 +12486,10 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>166</v>
       </c>

--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B21775-907F-4D4A-97D9-9B677069BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF72F0A-32DA-4990-9083-3A3C07487995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -969,7 +958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -982,6 +971,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1521,7 +1511,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1821,9 +1811,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2158,6 +2145,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3574,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3588,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3603,7 +3596,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3611,7 +3604,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3619,7 +3612,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3627,16 +3620,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3644,7 +3637,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>587107850</v>
       </c>
     </row>
@@ -3652,101 +3645,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>248</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>248</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>248</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>248</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>248</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>263</v>
       </c>
       <c r="D22" s="24"/>
@@ -3804,367 +3797,367 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="153" t="str">
+      <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="153" t="str">
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4173,10 +4166,10 @@
       <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4275,7 +4268,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4287,7 +4280,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4307,7 +4300,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4375,7 +4368,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4387,7 +4380,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4400,7 +4393,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4448,14 +4441,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4539,7 +4532,7 @@
       <c r="B86" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4547,19 +4540,22 @@
       <c r="B87" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>254</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4573,14 +4569,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4592,12 +4588,12 @@
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>0</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>0</v>
       </c>
@@ -4610,15 +4606,15 @@
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="160" t="e">
+      <c r="D92" s="159" t="e">
         <f>C92/C91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E92" s="253" t="e">
+      <c r="E92" s="252" t="e">
         <f>E91*D92</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F92" s="253" t="e">
+      <c r="F92" s="252" t="e">
         <f>F91*D92</f>
         <v>#DIV/0!</v>
       </c>
@@ -4631,15 +4627,15 @@
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D93" s="160" t="e">
+      <c r="D93" s="159" t="e">
         <f>C93/C91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E93" s="253" t="e">
+      <c r="E93" s="252" t="e">
         <f>E91*D93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F93" s="253" t="e">
+      <c r="F93" s="252" t="e">
         <f>F91*D93</f>
         <v>#DIV/0!</v>
       </c>
@@ -4652,12 +4648,12 @@
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="160" t="e">
+      <c r="D94" s="159" t="e">
         <f>C94/C91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253" t="e">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252" t="e">
         <f>F91*D94</f>
         <v>#DIV/0!</v>
       </c>
@@ -4670,15 +4666,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160" t="e">
+      <c r="D95" s="159" t="e">
         <f>C95/C91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E95" s="253" t="e">
+      <c r="E95" s="252" t="e">
         <f>E91*D95</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F95" s="253" t="e">
+      <c r="F95" s="252" t="e">
         <f>F91*D95</f>
         <v>#DIV/0!</v>
       </c>
@@ -4691,12 +4687,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160" t="e">
+      <c r="D96" s="159" t="e">
         <f>C96/C91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253" t="e">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252" t="e">
         <f>F91*D96</f>
         <v>#DIV/0!</v>
       </c>
@@ -4709,12 +4705,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160" t="e">
+      <c r="D97" s="159" t="e">
         <f>C97/C91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253" t="e">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252" t="e">
         <f>F91*D97</f>
         <v>#DIV/0!</v>
       </c>
@@ -4723,16 +4719,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4851,11 +4847,11 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4871,40 +4867,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>Template</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
         <v>8677.4538662252908</v>
       </c>
-      <c r="H5" s="274"/>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4912,11 +4908,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4927,22 +4923,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -4971,7 +4967,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4982,7 +4978,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -4996,10 +4992,10 @@
       <c r="B12" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="172">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -5009,7 +5005,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5020,7 +5016,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5031,10 +5027,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5046,10 +5042,10 @@
       <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="176">
+      <c r="C17" s="175">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D17" s="177"/>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5071,14 +5067,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172" t="e">
+      <c r="C20" s="171" t="e">
         <f>Fin_Analysis!I75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5086,7 +5082,7 @@
       <c r="B21" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="172" t="e">
+      <c r="C21" s="171" t="e">
         <f>Fin_Analysis!I77</f>
         <v>#DIV/0!</v>
       </c>
@@ -5097,7 +5093,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172" t="e">
+      <c r="C22" s="171" t="e">
         <f>Fin_Analysis!I78</f>
         <v>#DIV/0!</v>
       </c>
@@ -5109,14 +5105,14 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172" t="e">
+      <c r="C23" s="171" t="e">
         <f>Fin_Analysis!I80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5125,14 +5121,14 @@
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172" t="e">
+      <c r="C24" s="171" t="e">
         <f>Fin_Analysis!I81</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="269" t="e">
+      <c r="G24" s="268" t="e">
         <f>G3/(Fin_Analysis!H86*G7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5141,14 +5137,14 @@
       <c r="B25" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="172" t="e">
+      <c r="C25" s="171" t="e">
         <f>Fin_Analysis!I82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172" t="e">
+      <c r="G25" s="171" t="e">
         <f>Fin_Analysis!I88</f>
         <v>#DIV/0!</v>
       </c>
@@ -5157,14 +5153,14 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172" t="e">
+      <c r="C26" s="171" t="e">
         <f>Fin_Analysis!I83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -5185,10 +5181,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5207,11 +5203,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="273" t="e">
+      <c r="G29" s="274" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="273"/>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5223,17 +5219,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5243,7 +5239,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5251,17 +5247,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5271,24 +5267,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5298,7 +5294,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5317,10 +5313,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6302,16 +6298,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6325,11 +6321,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6362,7 +6358,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6426,47 +6422,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201" t="str">
+      <c r="C6" s="200" t="str">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="201" t="str">
+      <c r="D6" s="200" t="str">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v/>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6528,47 +6524,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200" t="str">
+      <c r="C8" s="199" t="str">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v/>
       </c>
-      <c r="D8" s="200" t="str">
+      <c r="D8" s="199" t="str">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v/>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6579,47 +6575,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152" t="e">
+      <c r="C9" s="151" t="e">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="152" t="str">
+      <c r="D9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6630,47 +6626,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200" t="str">
+      <c r="C10" s="199" t="str">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v/>
       </c>
-      <c r="D10" s="200" t="str">
+      <c r="D10" s="199" t="str">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v/>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6681,47 +6677,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6732,47 +6728,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200" t="str">
+      <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="200" t="str">
+      <c r="D12" s="199" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6780,50 +6776,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230" t="e">
+      <c r="C13" s="229" t="e">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="230" t="str">
+      <c r="D13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6831,50 +6827,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231" t="e">
+      <c r="C14" s="230" t="e">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="231" t="str">
+      <c r="D14" s="230" t="str">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v/>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6882,50 +6878,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233" t="str">
+      <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v/>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6936,47 +6932,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6987,47 +6983,47 @@
       <c r="B17" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="200" t="str">
+      <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="200" t="str">
+      <c r="D17" s="199" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7038,47 +7034,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7089,47 +7085,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7140,47 +7136,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153" t="e">
+      <c r="C20" s="152" t="e">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="153" t="str">
+      <c r="D20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7191,47 +7187,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7242,47 +7238,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162" t="e">
+      <c r="C22" s="161" t="e">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="162" t="str">
+      <c r="D22" s="161" t="str">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v/>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7293,47 +7289,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154" t="e">
+      <c r="C23" s="153" t="e">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="154" t="str">
+      <c r="D23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7344,7 +7340,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155" t="e">
+      <c r="C24" s="154" t="e">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>#VALUE!</v>
       </c>
@@ -7392,50 +7388,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234" t="str">
+      <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v/>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7552,43 +7548,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7603,43 +7599,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7654,43 +7650,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7705,43 +7701,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7756,43 +7752,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7807,43 +7803,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7858,43 +7854,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7960,43 +7956,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8011,43 +8007,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8062,43 +8058,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8160,47 +8156,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D40" s="156" t="str">
+      <c r="D40" s="155" t="str">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v/>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8229,47 +8225,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157" t="e">
+      <c r="C42" s="156" t="e">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D42" s="157" t="str">
+      <c r="D42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8280,47 +8276,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154" t="e">
+      <c r="C43" s="153" t="e">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D43" s="154" t="str">
+      <c r="D43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8331,47 +8327,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154" t="e">
+      <c r="C44" s="153" t="e">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D44" s="154" t="str">
+      <c r="D44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8382,47 +8378,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154" t="e">
+      <c r="C45" s="153" t="e">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D45" s="154" t="str">
+      <c r="D45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8433,47 +8429,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154" t="e">
+      <c r="C46" s="153" t="e">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="154" t="str">
+      <c r="D46" s="153" t="str">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v/>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8484,47 +8480,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154" t="e">
+      <c r="C47" s="153" t="e">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D47" s="154" t="str">
+      <c r="D47" s="153" t="str">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v/>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8535,47 +8531,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154" t="e">
+      <c r="C48" s="153" t="e">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="154" t="str">
+      <c r="D48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8604,47 +8600,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157" t="e">
+      <c r="C50" s="156" t="e">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8655,47 +8651,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154" t="e">
+      <c r="C51" s="153" t="e">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8723,47 +8719,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8773,47 +8769,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158" t="e">
+      <c r="C54" s="157" t="e">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8823,47 +8819,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154" t="e">
+      <c r="C55" s="153" t="e">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D55" s="154" t="str">
+      <c r="D55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8873,47 +8869,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10211,8 +10207,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10261,7 +10257,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10358,7 +10354,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10405,7 +10401,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10433,7 +10429,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10461,7 +10457,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10489,7 +10485,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10502,7 +10498,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10517,7 +10513,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10544,7 +10540,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10566,7 +10562,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10588,7 +10584,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10609,7 +10605,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10634,7 +10630,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10661,7 +10657,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10682,7 +10678,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10847,7 +10843,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10876,7 +10872,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10902,7 +10898,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10929,7 +10925,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10956,7 +10952,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10972,7 +10968,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10986,7 +10982,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11013,7 +11009,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11039,7 +11035,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11066,7 +11062,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11093,7 +11089,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11114,7 +11110,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11135,7 +11131,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11156,7 +11152,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11177,7 +11173,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11323,7 +11319,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11432,11 +11428,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11447,11 +11443,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11463,11 +11459,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11563,8 +11559,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11644,8 +11640,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11681,19 +11677,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11703,18 +11699,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11725,17 +11721,17 @@
         <f>Data!C6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>0</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>0</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11746,23 +11742,23 @@
         <f>Data!C8</f>
         <v/>
       </c>
-      <c r="D75" s="160" t="e">
+      <c r="D75" s="159" t="e">
         <f>C75/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E75" s="239" t="e">
+      <c r="E75" s="238" t="e">
         <f>Inputs!E92</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F75" s="161" t="e">
+      <c r="F75" s="160" t="e">
         <f>E75/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="239" t="e">
+      <c r="H75" s="238" t="e">
         <f>Inputs!F92</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I75" s="161" t="e">
+      <c r="I75" s="160" t="e">
         <f>H75/$H$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -11772,21 +11768,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162" t="e">
+      <c r="C76" s="161" t="e">
         <f>C74-C75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163" t="e">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162" t="e">
         <f>E74-E75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163" t="e">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162" t="e">
         <f>H74-H75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11797,23 +11793,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D77" s="160" t="e">
+      <c r="D77" s="159" t="e">
         <f>C77/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E77" s="239" t="e">
+      <c r="E77" s="238" t="e">
         <f>Inputs!E93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="161" t="e">
+      <c r="F77" s="160" t="e">
         <f>E77/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="239" t="e">
+      <c r="H77" s="238" t="e">
         <f>Inputs!F93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" s="161" t="e">
+      <c r="I77" s="160" t="e">
         <f>H77/$H$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -11827,54 +11823,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160" t="e">
+      <c r="D78" s="159" t="e">
         <f>C78/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E78" s="181" t="e">
+      <c r="E78" s="180" t="e">
         <f>E74*F78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F78" s="161" t="e">
+      <c r="F78" s="160" t="e">
         <f>I78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="239" t="e">
+      <c r="H78" s="238" t="e">
         <f>Inputs!F97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I78" s="161" t="e">
+      <c r="I78" s="160" t="e">
         <f>H78/$H$74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258" t="e">
+      <c r="C79" s="257" t="e">
         <f>C76-C77-C78</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D79" s="259" t="e">
+      <c r="D79" s="258" t="e">
         <f>C79/C74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E79" s="260" t="e">
+      <c r="E79" s="259" t="e">
         <f>E76-E77-E78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F79" s="259" t="e">
+      <c r="F79" s="258" t="e">
         <f>E79/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260" t="e">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259" t="e">
         <f>H76-H77-H78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I79" s="259" t="e">
+      <c r="I79" s="258" t="e">
         <f>H79/H74</f>
         <v>#DIV/0!</v>
       </c>
@@ -11888,27 +11884,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160" t="e">
+      <c r="D80" s="159" t="e">
         <f>C80/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" s="181" t="e">
+      <c r="E80" s="180" t="e">
         <f>E74*F80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F80" s="161" t="e">
+      <c r="F80" s="160" t="e">
         <f>I80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="239" t="e">
+      <c r="H80" s="238" t="e">
         <f>Inputs!F96</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I80" s="161" t="e">
+      <c r="I80" s="160" t="e">
         <f>H80/$H$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11920,23 +11916,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="160" t="e">
+      <c r="D81" s="159" t="e">
         <f>C81/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E81" s="181" t="e">
+      <c r="E81" s="180" t="e">
         <f>E74*F81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F81" s="161" t="e">
+      <c r="F81" s="160" t="e">
         <f>I81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="239" t="e">
+      <c r="H81" s="238" t="e">
         <f>Inputs!F94</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="161" t="e">
+      <c r="I81" s="160" t="e">
         <f>H81/$H$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -11950,23 +11946,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160" t="e">
+      <c r="D82" s="159" t="e">
         <f>C82/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E82" s="239" t="e">
+      <c r="E82" s="238" t="e">
         <f>Inputs!E95</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F82" s="161" t="e">
+      <c r="F82" s="160" t="e">
         <f>E82/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="239" t="e">
+      <c r="H82" s="238" t="e">
         <f>Inputs!F95</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I82" s="161" t="e">
+      <c r="I82" s="160" t="e">
         <f>H82/$H$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -11976,27 +11972,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164" t="e">
+      <c r="C83" s="163" t="e">
         <f>C79-C81-C82-C80</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D83" s="165" t="e">
+      <c r="D83" s="164" t="e">
         <f>C83/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E83" s="166" t="e">
+      <c r="E83" s="165" t="e">
         <f>E79-E81-E82-E80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F83" s="165" t="e">
+      <c r="F83" s="164" t="e">
         <f>E83/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="166" t="e">
+      <c r="H83" s="165" t="e">
         <f>H79-H81-H82-H80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I83" s="165" t="e">
+      <c r="I83" s="164" t="e">
         <f>H83/$H$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -12006,49 +12002,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258" t="e">
+      <c r="C85" s="257" t="e">
         <f>C83*(1-I84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D85" s="259" t="e">
+      <c r="D85" s="258" t="e">
         <f>C85/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E85" s="265" t="e">
+      <c r="E85" s="264" t="e">
         <f>E83*(1-F84)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F85" s="259" t="e">
+      <c r="F85" s="258" t="e">
         <f>E85/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265" t="e">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264" t="e">
         <f>H83*(1-I84)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I85" s="259" t="e">
+      <c r="I85" s="258" t="e">
         <f>H85/$H$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -12058,69 +12054,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168" t="e">
+      <c r="C86" s="167" t="e">
         <f>C85*Data!C4/Common_Shares</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169" t="e">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168" t="e">
         <f>E85*Data!C4/Common_Shares</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169" t="e">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168" t="e">
         <f>H85*Data!C4/Common_Shares</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262" t="e">
+      <c r="C87" s="261" t="e">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263" t="e">
+      <c r="D87" s="209"/>
+      <c r="E87" s="262" t="e">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263" t="e">
+      <c r="F87" s="209"/>
+      <c r="H87" s="262" t="e">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I87" s="210"/>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="167" t="e">
+      <c r="D88" s="166" t="e">
         <f>C88/C86</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="167" t="e">
+      <c r="F88" s="166" t="e">
         <f>E88/E86</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="167" t="e">
+      <c r="I88" s="166" t="e">
         <f>H88/H86</f>
         <v>#DIV/0!</v>
       </c>
@@ -12130,21 +12126,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="210"/>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12166,22 +12162,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12193,7 +12189,7 @@
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D93" s="240">
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12201,14 +12197,14 @@
         <v>210</v>
       </c>
       <c r="F93" s="144" t="e">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144" t="e">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="24"/>
@@ -12217,23 +12213,26 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0.02</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="K94" s="24"/>
@@ -12255,14 +12254,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12279,12 +12278,12 @@
         <f>H97*Common_Shares/Data!C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D97" s="214"/>
+      <c r="D97" s="213"/>
       <c r="E97" s="123" t="e">
         <f>PV(C94,D93,0,-F93)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F97" s="214"/>
+      <c r="F97" s="213"/>
       <c r="H97" s="123" t="e">
         <f>PV(C94,D93,0,-I93)</f>
         <v>#DIV/0!</v>
@@ -12303,14 +12302,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12321,17 +12320,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12379,14 +12378,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12440,14 +12439,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>

--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF72F0A-32DA-4990-9083-3A3C07487995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEC18E-C2CF-954F-8C28-353F6533A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
   <si>
     <t>Company Info:</t>
   </si>
@@ -952,6 +963,9 @@
   <si>
     <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
   </si>
 </sst>
 </file>
@@ -959,19 +973,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1508,7 +1522,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1564,8 +1578,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,14 +1602,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1625,7 +1639,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1727,7 +1741,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1755,7 +1769,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,10 +1822,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1847,7 +1861,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1877,16 +1891,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,7 +1921,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,10 +1943,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,10 +1955,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,7 +1975,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,13 +1987,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2017,7 +2031,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2061,19 +2075,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2098,7 +2112,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2110,10 +2124,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2144,19 +2158,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,7 +2179,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2179,7 +2193,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2192,14 +2206,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2395,7 +2409,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2457,7 +2471,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2729,7 +2743,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2759,7 +2773,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3568,23 +3582,23 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
@@ -3592,7 +3606,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
@@ -3600,7 +3614,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3608,7 +3622,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3616,7 +3630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
@@ -3625,7 +3639,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
@@ -3633,7 +3647,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
@@ -3641,7 +3655,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3671,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3679,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
@@ -3673,15 +3687,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="218" t="s">
         <v>260</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
@@ -3690,7 +3704,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
@@ -3699,7 +3713,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
@@ -3708,7 +3722,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
@@ -3717,7 +3731,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
@@ -3726,7 +3740,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
@@ -3735,7 +3749,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
@@ -3744,7 +3758,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="115" t="s">
         <v>134</v>
       </c>
@@ -3793,7 +3807,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3809,7 +3823,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3825,7 +3839,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3841,7 +3855,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3857,7 +3871,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
         <v>261</v>
       </c>
@@ -3873,7 +3887,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3889,7 +3903,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -3905,7 +3919,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -3921,7 +3935,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -3937,7 +3951,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +3967,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -3969,7 +3983,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -3985,7 +3999,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4001,7 +4015,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4017,7 +4031,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4033,7 +4047,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4049,7 +4063,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
@@ -4065,7 +4079,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
@@ -4081,7 +4095,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
@@ -4097,7 +4111,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
@@ -4113,7 +4127,7 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="74" t="s">
         <v>256</v>
       </c>
@@ -4162,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
@@ -4176,7 +4190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4186,7 +4200,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
@@ -4196,7 +4210,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4207,7 +4221,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4217,7 +4231,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4227,7 +4241,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4238,7 +4252,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
@@ -4248,7 +4262,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4259,7 +4273,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4272,7 +4286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4284,7 +4298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4295,7 +4309,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4306,7 +4320,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4317,7 +4331,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4328,7 +4342,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4339,7 +4353,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>160</v>
       </c>
@@ -4350,7 +4364,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -4360,7 +4374,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4372,7 +4386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4384,7 +4398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4397,7 +4411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4408,7 +4422,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4419,7 +4433,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4429,7 +4443,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4440,7 +4454,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
@@ -4450,85 +4464,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B83" s="73" t="s">
         <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="10" t="s">
         <v>253</v>
       </c>
@@ -4536,7 +4550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="10" t="s">
         <v>251</v>
       </c>
@@ -4547,7 +4561,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
@@ -4564,7 +4578,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -4580,7 +4594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>127</v>
       </c>
@@ -4598,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B93" s="104" t="s">
         <v>250</v>
       </c>
@@ -4640,7 +4654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B94" s="104" t="s">
         <v>261</v>
       </c>
@@ -4658,7 +4672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B95" s="28" t="s">
         <v>249</v>
       </c>
@@ -4679,7 +4693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
@@ -4697,7 +4711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B97" s="73" t="s">
         <v>173</v>
       </c>
@@ -4715,7 +4729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
@@ -4807,19 +4821,19 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4828,7 +4842,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4843,7 +4857,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
@@ -4863,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
@@ -4883,7 +4897,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
@@ -4904,7 +4918,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4944,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
@@ -4954,8 +4968,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>191</v>
       </c>
@@ -4963,7 +4977,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
@@ -4974,7 +4988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
@@ -4988,7 +5002,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>257</v>
       </c>
@@ -5000,8 +5014,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -5012,7 +5026,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
@@ -5023,7 +5037,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
@@ -5032,13 +5046,13 @@
       </c>
       <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
-        <v>HK</v>
+        <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
@@ -5047,8 +5061,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>184</v>
       </c>
@@ -5063,7 +5077,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
@@ -5078,7 +5092,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>247</v>
       </c>
@@ -5089,7 +5103,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
@@ -5101,7 +5115,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
@@ -5117,7 +5131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
@@ -5133,7 +5147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>246</v>
       </c>
@@ -5149,7 +5163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
@@ -5165,8 +5179,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5186,7 +5200,7 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>169</v>
       </c>
@@ -5209,22 +5223,22 @@
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
@@ -5234,7 +5248,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>226</v>
@@ -5245,14 +5259,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
@@ -5262,7 +5276,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>240</v>
@@ -5272,14 +5286,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
@@ -5289,7 +5303,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>232</v>
@@ -5299,19 +5313,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>231</v>
@@ -5321,886 +5335,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6275,7 +6289,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6283,7 +6297,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6291,7 +6305,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6316,7 +6330,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6345,7 +6359,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6367,7 +6381,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>134</v>
@@ -6417,7 +6431,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6468,7 +6482,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6519,7 +6533,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6570,7 +6584,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6621,7 +6635,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6672,7 +6686,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6723,7 +6737,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>241</v>
@@ -6774,7 +6788,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>242</v>
@@ -6825,7 +6839,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>234</v>
@@ -6876,7 +6890,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>243</v>
@@ -6927,7 +6941,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6978,7 +6992,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>261</v>
@@ -7029,7 +7043,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7080,7 +7094,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7131,7 +7145,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>236</v>
@@ -7182,7 +7196,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7233,7 +7247,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7284,7 +7298,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7335,7 +7349,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7386,7 +7400,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>129</v>
@@ -7437,7 +7451,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>135</v>
@@ -7488,7 +7502,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7539,7 +7553,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7590,7 +7604,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7641,7 +7655,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>149</v>
@@ -7692,7 +7706,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7743,7 +7757,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7794,7 +7808,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7845,7 +7859,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7896,7 +7910,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7947,7 +7961,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>138</v>
@@ -7998,7 +8012,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>139</v>
@@ -8049,7 +8063,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>137</v>
@@ -8100,7 +8114,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -8151,7 +8165,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>158</v>
@@ -8202,7 +8216,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>255</v>
@@ -8220,7 +8234,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8271,7 +8285,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>235</v>
@@ -8322,7 +8336,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8373,7 +8387,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8424,7 +8438,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>130</v>
@@ -8475,7 +8489,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>237</v>
@@ -8526,7 +8540,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>124</v>
@@ -8577,7 +8591,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>150</v>
@@ -8595,7 +8609,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>147</v>
@@ -8646,7 +8660,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>148</v>
@@ -8697,7 +8711,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -8714,7 +8728,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8764,7 +8778,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -8814,7 +8828,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -8864,7 +8878,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8914,1260 +8928,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10211,7 +10225,7 @@
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10219,11 +10233,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10239,7 +10253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10263,7 +10277,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10279,7 +10293,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10294,7 +10308,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10319,7 +10333,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10342,13 +10356,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10368,7 +10382,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10393,7 +10407,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10421,7 +10435,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -10449,7 +10463,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -10477,7 +10491,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10505,7 +10519,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10532,7 +10546,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>159</v>
       </c>
@@ -10554,7 +10568,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
@@ -10576,7 +10590,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10597,7 +10611,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10622,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
@@ -10649,7 +10663,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10670,7 +10684,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10696,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10705,7 +10719,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10727,7 +10741,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10756,7 +10770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10789,7 +10803,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -10822,7 +10836,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10852,7 +10866,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10864,7 +10878,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -10890,7 +10904,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10931,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -10944,7 +10958,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>160</v>
       </c>
@@ -10974,7 +10988,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -11001,7 +11015,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -11027,7 +11041,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -11054,7 +11068,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -11081,7 +11095,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
@@ -11102,7 +11116,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11123,7 +11137,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11144,7 +11158,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11165,7 +11179,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11191,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11200,7 +11214,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11219,7 +11233,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11238,7 +11252,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11268,7 +11282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11298,7 +11312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11325,7 +11339,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11352,20 +11366,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11382,7 +11396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11403,7 +11417,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11412,7 +11426,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>151</v>
       </c>
@@ -11423,7 +11437,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11438,7 +11452,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11454,7 +11468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11469,7 +11483,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11478,7 +11492,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>154</v>
       </c>
@@ -11492,7 +11506,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11513,7 +11527,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>140</v>
       </c>
@@ -11534,7 +11548,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
@@ -11555,7 +11569,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
@@ -11570,7 +11584,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>143</v>
       </c>
@@ -11591,7 +11605,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11601,7 +11615,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>155</v>
       </c>
@@ -11615,7 +11629,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>141</v>
       </c>
@@ -11636,7 +11650,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
@@ -11651,7 +11665,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
@@ -11672,7 +11686,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>128</v>
@@ -11694,7 +11708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -11713,7 +11727,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>127</v>
       </c>
@@ -11734,7 +11748,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
@@ -11764,7 +11778,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11785,7 +11799,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="104" t="s">
         <v>250</v>
       </c>
@@ -11815,7 +11829,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="73" t="s">
         <v>173</v>
       </c>
@@ -11845,7 +11859,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
@@ -11876,7 +11890,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>110</v>
       </c>
@@ -11908,7 +11922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="104" t="s">
         <v>261</v>
       </c>
@@ -11938,7 +11952,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="28" t="s">
         <v>249</v>
       </c>
@@ -11968,7 +11982,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
@@ -11998,7 +12012,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -12019,7 +12033,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
@@ -12050,7 +12064,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
@@ -12071,7 +12085,7 @@
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
@@ -12092,7 +12106,7 @@
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
@@ -12122,7 +12136,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
@@ -12143,11 +12157,11 @@
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12158,13 +12172,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
-        <v>HK</v>
+        <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
@@ -12180,14 +12194,14 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
-        <v>HK Discount Rate</v>
+        <v>CN Discount Rate</v>
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12209,7 +12223,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
@@ -12237,11 +12251,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12270,7 +12284,7 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -12294,7 +12308,7 @@
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>145</v>
       </c>
@@ -12312,7 +12326,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="105" t="s">
         <v>146</v>
       </c>
@@ -12333,7 +12347,7 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>115</v>
       </c>
@@ -12363,11 +12377,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>163</v>
       </c>
@@ -12394,7 +12408,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>162</v>
       </c>
@@ -12424,11 +12438,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>198</v>
       </c>
@@ -12455,7 +12469,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
@@ -12485,10 +12499,10 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>166</v>
       </c>

--- a/financial_models/templates/Valuation_v1.00.xlsx
+++ b/financial_models/templates/Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEC18E-C2CF-954F-8C28-353F6533A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422C074-F352-44F3-9F09-8A3D1D66C9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -46,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -966,6 +955,14 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,19 +970,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1519,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1578,8 +1575,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1602,14 +1599,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1639,7 +1636,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1741,7 +1738,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1769,7 +1766,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,10 +1819,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1861,7 +1858,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,16 +1888,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1921,7 +1918,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,10 +1940,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1955,10 +1952,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,7 +1972,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1987,13 +1984,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2031,7 +2028,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,19 +2072,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2112,7 +2109,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,10 +2121,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2158,19 +2155,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2179,7 +2176,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2193,7 +2190,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2206,14 +2203,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2409,7 +2406,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2471,7 +2468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2743,7 +2740,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2773,7 +2770,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3581,24 +3578,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
@@ -3606,7 +3603,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
@@ -3614,7 +3611,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
@@ -3639,7 +3636,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
@@ -3647,7 +3644,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
@@ -3663,7 +3660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3668,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
@@ -3679,7 +3676,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
@@ -3687,7 +3684,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
         <v>260</v>
       </c>
@@ -3695,7 +3692,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
@@ -3704,7 +3701,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
@@ -3713,7 +3710,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
@@ -3722,7 +3719,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
@@ -3731,7 +3728,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
@@ -3740,7 +3737,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
@@ -3749,7 +3746,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
@@ -3758,7 +3755,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
         <v>134</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
@@ -3823,7 +3820,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
@@ -3839,7 +3836,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
@@ -3855,7 +3852,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
@@ -3871,7 +3868,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>261</v>
       </c>
@@ -3887,7 +3884,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
@@ -3903,7 +3900,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
@@ -3919,7 +3916,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
@@ -3935,7 +3932,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
@@ -3951,7 +3948,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
@@ -3967,7 +3964,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
@@ -3983,7 +3980,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -3999,7 +3996,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
@@ -4015,7 +4012,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
@@ -4031,7 +4028,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
@@ -4047,7 +4044,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
@@ -4063,7 +4060,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
@@ -4079,7 +4076,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
@@ -4095,7 +4092,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
@@ -4111,7 +4108,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
@@ -4127,7 +4124,7 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>256</v>
       </c>
@@ -4176,7 +4173,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4200,7 +4197,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
@@ -4210,7 +4207,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4221,7 +4218,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
@@ -4231,7 +4228,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
@@ -4241,7 +4238,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4252,9 +4249,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4262,7 +4259,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4273,7 +4270,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4309,7 +4306,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>51</v>
       </c>
@@ -4320,7 +4317,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
@@ -4331,7 +4328,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4342,7 +4339,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
@@ -4353,7 +4350,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>160</v>
       </c>
@@ -4364,9 +4361,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4374,7 +4371,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4386,7 +4383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4398,7 +4395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
@@ -4422,7 +4419,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -4433,7 +4430,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
@@ -4443,7 +4440,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4454,7 +4451,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
@@ -4464,85 +4461,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>253</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>251</v>
       </c>
@@ -4561,7 +4558,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
@@ -4578,7 +4575,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -4594,7 +4591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>127</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>106</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
         <v>250</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
         <v>261</v>
       </c>
@@ -4672,7 +4669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>249</v>
       </c>
@@ -4693,7 +4690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>110</v>
       </c>
@@ -4711,7 +4708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>173</v>
       </c>
@@ -4729,7 +4726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
@@ -4821,19 +4818,19 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4842,7 +4839,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4857,7 +4854,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
@@ -4897,7 +4894,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
@@ -4918,7 +4915,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +4941,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
@@ -4968,8 +4965,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
         <v>191</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>257</v>
       </c>
@@ -5014,8 +5011,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -5026,7 +5023,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
@@ -5037,7 +5034,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
@@ -5052,7 +5049,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
@@ -5061,8 +5058,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
         <v>184</v>
       </c>
@@ -5077,7 +5074,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
@@ -5092,7 +5089,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
         <v>247</v>
       </c>
@@ -5103,7 +5100,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>246</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
@@ -5179,8 +5176,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5200,7 +5197,7 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>169</v>
       </c>
@@ -5223,22 +5220,22 @@
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
@@ -5248,7 +5245,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>226</v>
@@ -5259,14 +5256,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
@@ -5276,7 +5273,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>240</v>
@@ -5286,14 +5283,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
@@ -5303,7 +5300,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>232</v>
@@ -5313,19 +5310,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>231</v>
@@ -5335,886 +5332,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6289,7 +6286,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6297,7 +6294,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6305,7 +6302,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6330,7 +6327,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6359,7 +6356,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6381,7 +6378,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>134</v>
@@ -6431,7 +6428,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6482,7 +6479,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6533,7 +6530,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6584,7 +6581,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6635,7 +6632,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6686,7 +6683,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6737,7 +6734,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>241</v>
@@ -6788,7 +6785,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>242</v>
@@ -6839,7 +6836,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>234</v>
@@ -6890,7 +6887,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>243</v>
@@ -6941,7 +6938,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6992,7 +6989,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>261</v>
@@ -7043,7 +7040,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -7094,7 +7091,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -7145,7 +7142,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>236</v>
@@ -7196,7 +7193,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -7247,7 +7244,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
@@ -7298,7 +7295,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -7349,7 +7346,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -7400,7 +7397,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>129</v>
@@ -7451,7 +7448,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>135</v>
@@ -7502,7 +7499,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7553,7 +7550,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7604,7 +7601,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7655,7 +7652,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>149</v>
@@ -7706,7 +7703,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7757,7 +7754,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7808,7 +7805,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7859,7 +7856,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7910,7 +7907,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7961,7 +7958,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>138</v>
@@ -8012,7 +8009,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>139</v>
@@ -8063,7 +8060,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>137</v>
@@ -8114,7 +8111,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -8165,7 +8162,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>158</v>
@@ -8216,7 +8213,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>255</v>
@@ -8234,7 +8231,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8285,7 +8282,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>235</v>
@@ -8336,7 +8333,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8387,7 +8384,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8438,7 +8435,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>130</v>
@@ -8489,7 +8486,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>237</v>
@@ -8540,7 +8537,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>124</v>
@@ -8591,7 +8588,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>150</v>
@@ -8609,7 +8606,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>147</v>
@@ -8660,7 +8657,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>148</v>
@@ -8711,7 +8708,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -8728,7 +8725,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8778,7 +8775,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -8828,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -8878,7 +8875,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8928,1260 +8925,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent=